--- a/data/misused_bar_graph_figures/nat_nanotechnol/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_nanotechnol/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_nanotechnol/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7C75BC-4F2D-644D-A8A4-CCF10749D16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0B387B-7FD1-BE43-96EB-57FF03624AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="11060" windowWidth="37600" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="66">
   <si>
     <t>DOI</t>
   </si>
@@ -152,13 +152,79 @@
   </si>
   <si>
     <t>MyPs (% in Lin- cells)</t>
+  </si>
+  <si>
+    <t>Absolute/Relative</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Physical quantity I</t>
+  </si>
+  <si>
+    <t>Physical quantity II</t>
+  </si>
+  <si>
+    <t>Log transformation</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Measured value</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Colony count</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Biofluid biochemical concentration</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Cytokine concentration</t>
+  </si>
+  <si>
+    <t>Cell percentage</t>
+  </si>
+  <si>
+    <t>Cytokine in cell percentage</t>
+  </si>
+  <si>
+    <t>Ultrasound signal</t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>Calculated value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +238,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -181,7 +255,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -215,17 +289,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,18 +618,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="117" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="183" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,8 +649,23 @@
       <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -573,8 +681,23 @@
       <c r="E2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -590,8 +713,23 @@
       <c r="E3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -607,8 +745,23 @@
       <c r="E4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -624,8 +777,23 @@
       <c r="E5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -641,8 +809,23 @@
       <c r="E6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -658,8 +841,23 @@
       <c r="E7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -675,8 +873,23 @@
       <c r="E8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -692,8 +905,23 @@
       <c r="E9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -709,8 +937,23 @@
       <c r="E10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -726,8 +969,23 @@
       <c r="E11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -743,8 +1001,23 @@
       <c r="E12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -760,8 +1033,23 @@
       <c r="E13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -777,8 +1065,23 @@
       <c r="E14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -794,8 +1097,23 @@
       <c r="E15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -811,8 +1129,23 @@
       <c r="E16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -828,8 +1161,23 @@
       <c r="E17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -845,8 +1193,23 @@
       <c r="E18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -862,8 +1225,23 @@
       <c r="E19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -879,8 +1257,23 @@
       <c r="E20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -896,8 +1289,23 @@
       <c r="E21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -913,8 +1321,23 @@
       <c r="E22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -930,8 +1353,23 @@
       <c r="E23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -947,8 +1385,23 @@
       <c r="E24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -964,8 +1417,23 @@
       <c r="E25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -981,8 +1449,23 @@
       <c r="E26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -998,8 +1481,23 @@
       <c r="E27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1015,8 +1513,23 @@
       <c r="E28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1032,8 +1545,23 @@
       <c r="E29" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1049,8 +1577,23 @@
       <c r="E30" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1066,8 +1609,23 @@
       <c r="E31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1083,8 +1641,23 @@
       <c r="E32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1100,8 +1673,23 @@
       <c r="E33" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -1117,8 +1705,23 @@
       <c r="E34" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+      <c r="J34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -1134,8 +1737,23 @@
       <c r="E35" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+      <c r="J35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -1151,8 +1769,23 @@
       <c r="E36" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -1168,8 +1801,23 @@
       <c r="E37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" t="s">
+        <v>62</v>
+      </c>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -1185,8 +1833,23 @@
       <c r="E38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -1201,6 +1864,21 @@
       </c>
       <c r="E39" t="s">
         <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/nat_nanotechnol/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_nanotechnol/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_nanotechnol/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0B387B-7FD1-BE43-96EB-57FF03624AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270BF1FF-5055-9D4C-835A-9666E56553C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="11060" windowWidth="37600" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,9 +208,6 @@
     <t>Cell percentage</t>
   </si>
   <si>
-    <t>Cytokine in cell percentage</t>
-  </si>
-  <si>
     <t>Ultrasound signal</t>
   </si>
   <si>
@@ -218,6 +215,9 @@
   </si>
   <si>
     <t>Calculated value</t>
+  </si>
+  <si>
+    <t>Protein in cell percentage</t>
   </si>
 </sst>
 </file>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="183" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:J23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="183" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1421,13 +1421,13 @@
         <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" t="s">
         <v>63</v>
-      </c>
-      <c r="I25" t="s">
-        <v>64</v>
       </c>
       <c r="J25" t="s">
         <v>51</v>
@@ -1648,7 +1648,7 @@
         <v>57</v>
       </c>
       <c r="H32" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I32" t="s">
         <v>57</v>
@@ -1680,7 +1680,7 @@
         <v>57</v>
       </c>
       <c r="H33" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I33" t="s">
         <v>57</v>
@@ -1712,7 +1712,7 @@
         <v>57</v>
       </c>
       <c r="H34" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I34" t="s">
         <v>57</v>
@@ -1808,7 +1808,7 @@
         <v>57</v>
       </c>
       <c r="H37" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I37" t="s">
         <v>57</v>

--- a/data/misused_bar_graph_figures/nat_nanotechnol/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_nanotechnol/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_nanotechnol/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270BF1FF-5055-9D4C-835A-9666E56553C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1561D3-68EB-D141-BA4E-21AD4A183224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="11060" windowWidth="37600" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="105">
   <si>
     <t>DOI</t>
   </si>
@@ -218,6 +218,123 @@
   </si>
   <si>
     <t>Protein in cell percentage</t>
+  </si>
+  <si>
+    <t>Fig Index</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01323-4_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01323-4_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01323-4_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01323-4_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01323-4_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01323-4_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01346-x_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01346-x_zero_fig10</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01346-x_zero_fig11</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01346-x_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01346-x_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01346-x_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01346-x_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01346-x_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01346-x_zero_fig7</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01346-x_zero_fig8</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01346-x_zero_fig9</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01374-7_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01374-7_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01374-7_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01374-7_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01374-7_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01374-7_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01378-3_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01523-y_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01523-y_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01523-y_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01553-6_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01553-6_zero_fig10</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01553-6_zero_fig11</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01553-6_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01553-6_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01553-6_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01553-6_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01553-6_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01553-6_zero_fig7</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01553-6_zero_fig8</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01553-6_zero_fig9</t>
   </si>
 </sst>
 </file>
@@ -618,74 +735,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="183" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
       </c>
       <c r="H2" t="s">
         <v>50</v>
@@ -694,30 +814,33 @@
         <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>49</v>
-      </c>
-      <c r="G3" t="s">
-        <v>50</v>
       </c>
       <c r="H3" t="s">
         <v>50</v>
@@ -726,30 +849,33 @@
         <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>49</v>
-      </c>
-      <c r="G4" t="s">
-        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>50</v>
@@ -758,30 +884,33 @@
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>49</v>
-      </c>
-      <c r="G5" t="s">
-        <v>50</v>
       </c>
       <c r="H5" t="s">
         <v>50</v>
@@ -790,30 +919,33 @@
         <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
       </c>
       <c r="H6" t="s">
         <v>50</v>
@@ -822,30 +954,33 @@
         <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>49</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
       </c>
       <c r="H7" t="s">
         <v>50</v>
@@ -854,95 +989,104 @@
         <v>50</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>52</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>53</v>
-      </c>
-      <c r="H8" t="s">
-        <v>54</v>
       </c>
       <c r="I8" t="s">
         <v>54</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>52</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>53</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>55</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>56</v>
       </c>
-      <c r="J9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
       <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>49</v>
       </c>
-      <c r="G10" t="s">
-        <v>57</v>
-      </c>
       <c r="H10" t="s">
         <v>57</v>
       </c>
@@ -950,159 +1094,174 @@
         <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
       <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>52</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>53</v>
-      </c>
-      <c r="H11" t="s">
-        <v>54</v>
       </c>
       <c r="I11" t="s">
         <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
       <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>26</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>52</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>53</v>
-      </c>
-      <c r="H12" t="s">
-        <v>54</v>
       </c>
       <c r="I12" t="s">
         <v>54</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
       <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>26</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>52</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>53</v>
-      </c>
-      <c r="H13" t="s">
-        <v>54</v>
       </c>
       <c r="I13" t="s">
         <v>54</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
       <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
       <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>52</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>53</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>55</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>56</v>
       </c>
-      <c r="J14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="K14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
       <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>28</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>49</v>
       </c>
-      <c r="G15" t="s">
-        <v>57</v>
-      </c>
       <c r="H15" t="s">
         <v>57</v>
       </c>
@@ -1110,63 +1269,69 @@
         <v>57</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
       <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>27</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>52</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>53</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>55</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>56</v>
       </c>
-      <c r="J16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="K16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
       <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
       <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>28</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>49</v>
       </c>
-      <c r="G17" t="s">
-        <v>57</v>
-      </c>
       <c r="H17" t="s">
         <v>57</v>
       </c>
@@ -1174,31 +1339,34 @@
         <v>57</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
       <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
       <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>28</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>49</v>
       </c>
-      <c r="G18" t="s">
-        <v>57</v>
-      </c>
       <c r="H18" t="s">
         <v>57</v>
       </c>
@@ -1206,678 +1374,744 @@
         <v>57</v>
       </c>
       <c r="J18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
       <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
       <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>30</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>52</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>53</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>58</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>59</v>
       </c>
-      <c r="J19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="K19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
       <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
       <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>31</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>52</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>53</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>58</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>59</v>
       </c>
-      <c r="J20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="K20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
       <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
       <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>32</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>52</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>53</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>58</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>59</v>
       </c>
-      <c r="J21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="K21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
       <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
       <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>33</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>52</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>53</v>
-      </c>
-      <c r="H22" t="s">
-        <v>59</v>
       </c>
       <c r="I22" t="s">
         <v>59</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
       <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>11</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
       <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>33</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>52</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>53</v>
-      </c>
-      <c r="H23" t="s">
-        <v>59</v>
       </c>
       <c r="I23" t="s">
         <v>59</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
       <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
       <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
         <v>31</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>52</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>53</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>58</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>59</v>
       </c>
-      <c r="J24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="K24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
         <v>20</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
       <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
       <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
         <v>34</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>49</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>64</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>62</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>63</v>
       </c>
-      <c r="J25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="K25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
       <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
       <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
         <v>35</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>52</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>53</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>60</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>59</v>
       </c>
-      <c r="J26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="K26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
         <v>21</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
       <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>8</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
       <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
         <v>36</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>52</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>53</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>58</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>59</v>
       </c>
-      <c r="J27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="K27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
         <v>21</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
       <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>9</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
       <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
         <v>36</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>52</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>53</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>58</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>59</v>
       </c>
-      <c r="J28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="K28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
         <v>22</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
       <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>6</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
       <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
         <v>37</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>49</v>
       </c>
-      <c r="G29" t="s">
-        <v>57</v>
-      </c>
       <c r="H29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" t="s">
         <v>61</v>
       </c>
-      <c r="I29" t="s">
-        <v>57</v>
-      </c>
       <c r="J29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
         <v>22</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
       <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>14</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
       <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
         <v>37</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>49</v>
       </c>
-      <c r="G30" t="s">
-        <v>57</v>
-      </c>
       <c r="H30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" t="s">
         <v>61</v>
       </c>
-      <c r="I30" t="s">
-        <v>57</v>
-      </c>
       <c r="J30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
         <v>22</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
       <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>15</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
       <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
         <v>42</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>49</v>
       </c>
-      <c r="G31" t="s">
-        <v>57</v>
-      </c>
       <c r="H31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" t="s">
         <v>61</v>
       </c>
-      <c r="I31" t="s">
-        <v>57</v>
-      </c>
       <c r="J31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
         <v>22</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
       <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>8</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
       <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
         <v>38</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>49</v>
       </c>
-      <c r="G32" t="s">
-        <v>57</v>
-      </c>
       <c r="H32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" t="s">
         <v>65</v>
       </c>
-      <c r="I32" t="s">
-        <v>57</v>
-      </c>
       <c r="J32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
         <v>22</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
       <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
       <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
         <v>39</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>49</v>
       </c>
-      <c r="G33" t="s">
-        <v>57</v>
-      </c>
       <c r="H33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" t="s">
         <v>65</v>
       </c>
-      <c r="I33" t="s">
-        <v>57</v>
-      </c>
       <c r="J33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
         <v>22</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
       <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>10</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
       <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
         <v>39</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>49</v>
       </c>
-      <c r="G34" t="s">
-        <v>57</v>
-      </c>
       <c r="H34" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" t="s">
         <v>65</v>
       </c>
-      <c r="I34" t="s">
-        <v>57</v>
-      </c>
       <c r="J34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
         <v>22</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
       <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>11</v>
       </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
       <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
         <v>40</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>52</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>53</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>60</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>59</v>
       </c>
-      <c r="J35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="K35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" t="s">
         <v>22</v>
       </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
       <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>12</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
       <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
         <v>40</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>52</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>53</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>60</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>59</v>
       </c>
-      <c r="J36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="K36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" t="s">
         <v>22</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
       <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>16</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
       <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
         <v>39</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>49</v>
       </c>
-      <c r="G37" t="s">
-        <v>57</v>
-      </c>
       <c r="H37" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" t="s">
         <v>65</v>
       </c>
-      <c r="I37" t="s">
-        <v>57</v>
-      </c>
       <c r="J37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="K37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
         <v>22</v>
       </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
       <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>17</v>
       </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
       <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
         <v>41</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>49</v>
       </c>
-      <c r="G38" t="s">
-        <v>57</v>
-      </c>
       <c r="H38" t="s">
+        <v>57</v>
+      </c>
+      <c r="I38" t="s">
         <v>61</v>
       </c>
-      <c r="I38" t="s">
-        <v>57</v>
-      </c>
       <c r="J38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" t="s">
         <v>22</v>
       </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
       <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
         <v>18</v>
       </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
       <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
         <v>43</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>49</v>
       </c>
-      <c r="G39" t="s">
-        <v>57</v>
-      </c>
       <c r="H39" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" t="s">
         <v>61</v>
       </c>
-      <c r="I39" t="s">
-        <v>57</v>
-      </c>
       <c r="J39" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39" t="s">
         <v>51</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/nat_nanotechnol/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_nanotechnol/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_nanotechnol/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1561D3-68EB-D141-BA4E-21AD4A183224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5A1254-5735-C44B-A3F2-FFE3D09FB945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,9 +208,6 @@
     <t>Cell percentage</t>
   </si>
   <si>
-    <t>Ultrasound signal</t>
-  </si>
-  <si>
     <t>Signal</t>
   </si>
   <si>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t>10.1038:s41565-023-01553-6_zero_fig9</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="183" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="F9" zoomScale="183" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -746,13 +746,13 @@
     <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1613,13 +1613,13 @@
         <v>49</v>
       </c>
       <c r="H25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I25" t="s">
         <v>62</v>
       </c>
       <c r="J25" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="K25" t="s">
         <v>51</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
@@ -1861,7 +1861,7 @@
         <v>57</v>
       </c>
       <c r="I32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J32" t="s">
         <v>57</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
@@ -1896,7 +1896,7 @@
         <v>57</v>
       </c>
       <c r="I33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J33" t="s">
         <v>57</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -1931,7 +1931,7 @@
         <v>57</v>
       </c>
       <c r="I34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J34" t="s">
         <v>57</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
@@ -2036,7 +2036,7 @@
         <v>57</v>
       </c>
       <c r="I37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J37" t="s">
         <v>57</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>

--- a/data/misused_bar_graph_figures/nat_nanotechnol/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_nanotechnol/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_nanotechnol/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5A1254-5735-C44B-A3F2-FFE3D09FB945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACB317A-9E03-5B44-90A7-8C049B5DE6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="103">
   <si>
     <t>DOI</t>
   </si>
@@ -196,9 +196,6 @@
     <t>Percentage</t>
   </si>
   <si>
-    <t>Biofluid biochemical concentration</t>
-  </si>
-  <si>
     <t>Concentration</t>
   </si>
   <si>
@@ -208,15 +205,9 @@
     <t>Cell percentage</t>
   </si>
   <si>
-    <t>Signal</t>
-  </si>
-  <si>
     <t>Calculated value</t>
   </si>
   <si>
-    <t>Protein in cell percentage</t>
-  </si>
-  <si>
     <t>Fig Index</t>
   </si>
   <si>
@@ -335,6 +326,9 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>Colon length</t>
   </si>
 </sst>
 </file>
@@ -737,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F9" zoomScale="183" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="183" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -752,7 +746,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -787,7 +781,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -822,7 +816,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -857,7 +851,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -892,7 +886,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -927,7 +921,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -962,7 +956,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -997,7 +991,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1021,7 +1015,7 @@
         <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
         <v>54</v>
@@ -1032,7 +1026,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1067,7 +1061,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1102,7 +1096,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1126,7 +1120,7 @@
         <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
         <v>54</v>
@@ -1137,7 +1131,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1161,7 +1155,7 @@
         <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="J12" t="s">
         <v>54</v>
@@ -1172,7 +1166,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1196,7 +1190,7 @@
         <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="J13" t="s">
         <v>54</v>
@@ -1207,7 +1201,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1242,7 +1236,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1277,7 +1271,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1312,7 +1306,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1347,7 +1341,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1382,7 +1376,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1409,7 +1403,7 @@
         <v>58</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K19" t="s">
         <v>51</v>
@@ -1417,7 +1411,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1444,7 +1438,7 @@
         <v>58</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K20" t="s">
         <v>51</v>
@@ -1452,7 +1446,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1479,7 +1473,7 @@
         <v>58</v>
       </c>
       <c r="J21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" t="s">
         <v>51</v>
@@ -1487,7 +1481,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1511,10 +1505,10 @@
         <v>53</v>
       </c>
       <c r="I22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K22" t="s">
         <v>51</v>
@@ -1522,7 +1516,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -1546,10 +1540,10 @@
         <v>53</v>
       </c>
       <c r="I23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K23" t="s">
         <v>51</v>
@@ -1557,7 +1551,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -1584,7 +1578,7 @@
         <v>58</v>
       </c>
       <c r="J24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K24" t="s">
         <v>51</v>
@@ -1592,7 +1586,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1613,13 +1607,13 @@
         <v>49</v>
       </c>
       <c r="H25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I25" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="J25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K25" t="s">
         <v>51</v>
@@ -1627,7 +1621,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
@@ -1651,10 +1645,10 @@
         <v>53</v>
       </c>
       <c r="I26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K26" t="s">
         <v>51</v>
@@ -1662,7 +1656,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1689,7 +1683,7 @@
         <v>58</v>
       </c>
       <c r="J27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" t="s">
         <v>51</v>
@@ -1697,7 +1691,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -1724,7 +1718,7 @@
         <v>58</v>
       </c>
       <c r="J28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K28" t="s">
         <v>51</v>
@@ -1732,7 +1726,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -1756,7 +1750,7 @@
         <v>57</v>
       </c>
       <c r="I29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J29" t="s">
         <v>57</v>
@@ -1767,7 +1761,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
@@ -1791,7 +1785,7 @@
         <v>57</v>
       </c>
       <c r="I30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J30" t="s">
         <v>57</v>
@@ -1802,7 +1796,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -1826,7 +1820,7 @@
         <v>57</v>
       </c>
       <c r="I31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J31" t="s">
         <v>57</v>
@@ -1837,7 +1831,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
@@ -1861,7 +1855,7 @@
         <v>57</v>
       </c>
       <c r="I32" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J32" t="s">
         <v>57</v>
@@ -1872,7 +1866,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
@@ -1896,7 +1890,7 @@
         <v>57</v>
       </c>
       <c r="I33" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J33" t="s">
         <v>57</v>
@@ -1907,7 +1901,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -1931,7 +1925,7 @@
         <v>57</v>
       </c>
       <c r="I34" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J34" t="s">
         <v>57</v>
@@ -1942,7 +1936,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -1966,10 +1960,10 @@
         <v>53</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K35" t="s">
         <v>51</v>
@@ -1977,7 +1971,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
@@ -2001,10 +1995,10 @@
         <v>53</v>
       </c>
       <c r="I36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K36" t="s">
         <v>51</v>
@@ -2012,7 +2006,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
@@ -2036,7 +2030,7 @@
         <v>57</v>
       </c>
       <c r="I37" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J37" t="s">
         <v>57</v>
@@ -2047,7 +2041,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -2071,7 +2065,7 @@
         <v>57</v>
       </c>
       <c r="I38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J38" t="s">
         <v>57</v>
@@ -2082,7 +2076,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -2106,7 +2100,7 @@
         <v>57</v>
       </c>
       <c r="I39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J39" t="s">
         <v>57</v>

--- a/data/misused_bar_graph_figures/nat_nanotechnol/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_nanotechnol/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_nanotechnol/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACB317A-9E03-5B44-90A7-8C049B5DE6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6923D3D4-7E2C-984F-9000-27DB1E8FE7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="102">
   <si>
     <t>DOI</t>
   </si>
@@ -187,12 +187,6 @@
     <t>Length</t>
   </si>
   <si>
-    <t>Colony count</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>Percentage</t>
   </si>
   <si>
@@ -329,6 +323,9 @@
   </si>
   <si>
     <t>Colon length</t>
+  </si>
+  <si>
+    <t>Titer</t>
   </si>
 </sst>
 </file>
@@ -731,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="183" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:I13"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="183" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -746,7 +743,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -781,7 +778,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -816,7 +813,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -851,7 +848,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -886,7 +883,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -921,7 +918,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -956,7 +953,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -991,7 +988,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1015,7 +1012,7 @@
         <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
         <v>54</v>
@@ -1026,7 +1023,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1050,7 +1047,7 @@
         <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
         <v>56</v>
@@ -1061,7 +1058,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1082,13 +1079,13 @@
         <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K10" t="s">
         <v>51</v>
@@ -1096,7 +1093,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1120,7 +1117,7 @@
         <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J11" t="s">
         <v>54</v>
@@ -1131,7 +1128,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1155,7 +1152,7 @@
         <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J12" t="s">
         <v>54</v>
@@ -1166,7 +1163,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1190,7 +1187,7 @@
         <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J13" t="s">
         <v>54</v>
@@ -1201,7 +1198,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1225,7 +1222,7 @@
         <v>53</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="J14" t="s">
         <v>56</v>
@@ -1236,7 +1233,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1257,13 +1254,13 @@
         <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K15" t="s">
         <v>51</v>
@@ -1271,7 +1268,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1295,7 +1292,7 @@
         <v>53</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="J16" t="s">
         <v>56</v>
@@ -1306,7 +1303,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1327,13 +1324,13 @@
         <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K17" t="s">
         <v>51</v>
@@ -1341,7 +1338,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1362,13 +1359,13 @@
         <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K18" t="s">
         <v>51</v>
@@ -1376,7 +1373,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1400,10 +1397,10 @@
         <v>53</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K19" t="s">
         <v>51</v>
@@ -1411,7 +1408,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1435,10 +1432,10 @@
         <v>53</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K20" t="s">
         <v>51</v>
@@ -1446,7 +1443,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1470,10 +1467,10 @@
         <v>53</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K21" t="s">
         <v>51</v>
@@ -1481,7 +1478,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1505,10 +1502,10 @@
         <v>53</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K22" t="s">
         <v>51</v>
@@ -1516,7 +1513,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -1540,10 +1537,10 @@
         <v>53</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K23" t="s">
         <v>51</v>
@@ -1551,7 +1548,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -1575,10 +1572,10 @@
         <v>53</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K24" t="s">
         <v>51</v>
@@ -1586,7 +1583,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1607,13 +1604,13 @@
         <v>49</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K25" t="s">
         <v>51</v>
@@ -1621,7 +1618,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
@@ -1645,10 +1642,10 @@
         <v>53</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K26" t="s">
         <v>51</v>
@@ -1656,7 +1653,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1680,10 +1677,10 @@
         <v>53</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K27" t="s">
         <v>51</v>
@@ -1691,7 +1688,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -1715,10 +1712,10 @@
         <v>53</v>
       </c>
       <c r="I28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K28" t="s">
         <v>51</v>
@@ -1726,7 +1723,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -1747,13 +1744,13 @@
         <v>49</v>
       </c>
       <c r="H29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K29" t="s">
         <v>51</v>
@@ -1761,7 +1758,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
@@ -1782,13 +1779,13 @@
         <v>49</v>
       </c>
       <c r="H30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K30" t="s">
         <v>51</v>
@@ -1796,7 +1793,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -1817,13 +1814,13 @@
         <v>49</v>
       </c>
       <c r="H31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K31" t="s">
         <v>51</v>
@@ -1831,7 +1828,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
@@ -1852,13 +1849,13 @@
         <v>49</v>
       </c>
       <c r="H32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K32" t="s">
         <v>51</v>
@@ -1866,7 +1863,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
@@ -1887,13 +1884,13 @@
         <v>49</v>
       </c>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K33" t="s">
         <v>51</v>
@@ -1901,7 +1898,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -1922,13 +1919,13 @@
         <v>49</v>
       </c>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K34" t="s">
         <v>51</v>
@@ -1936,7 +1933,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -1960,10 +1957,10 @@
         <v>53</v>
       </c>
       <c r="I35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K35" t="s">
         <v>51</v>
@@ -1971,7 +1968,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
@@ -1995,10 +1992,10 @@
         <v>53</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K36" t="s">
         <v>51</v>
@@ -2006,7 +2003,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
@@ -2027,13 +2024,13 @@
         <v>49</v>
       </c>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K37" t="s">
         <v>51</v>
@@ -2041,7 +2038,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -2062,13 +2059,13 @@
         <v>49</v>
       </c>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K38" t="s">
         <v>51</v>
@@ -2076,7 +2073,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -2097,13 +2094,13 @@
         <v>49</v>
       </c>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K39" t="s">
         <v>51</v>

--- a/data/misused_bar_graph_figures/nat_nanotechnol/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_nanotechnol/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_nanotechnol/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6923D3D4-7E2C-984F-9000-27DB1E8FE7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D030F01B-2E1E-EB43-952E-6E25BEBEC1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,9 +91,6 @@
     <t>10.1038:s41565-023-01553-6</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Mean PR</t>
   </si>
   <si>
@@ -160,12 +157,6 @@
     <t>Measurement Type</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Log transformation</t>
   </si>
   <si>
@@ -326,6 +317,15 @@
   </si>
   <si>
     <t>Titer</t>
+  </si>
+  <si>
+    <t>Measurand</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
   </si>
 </sst>
 </file>
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="183" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:J16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="183" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -743,7 +743,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -758,27 +758,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -793,27 +793,27 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -828,27 +828,27 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -863,27 +863,27 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -898,27 +898,27 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -933,27 +933,27 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -968,27 +968,27 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1003,27 +1003,27 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1038,27 +1038,27 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
         <v>53</v>
       </c>
-      <c r="I9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" t="s">
-        <v>56</v>
-      </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1073,27 +1073,27 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1108,27 +1108,27 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1143,27 +1143,27 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1178,27 +1178,27 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1213,27 +1213,27 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" t="s">
         <v>53</v>
       </c>
-      <c r="I14" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" t="s">
-        <v>56</v>
-      </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1248,27 +1248,27 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1283,27 +1283,27 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" t="s">
         <v>53</v>
       </c>
-      <c r="I16" t="s">
-        <v>101</v>
-      </c>
-      <c r="J16" t="s">
-        <v>56</v>
-      </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1318,27 +1318,27 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1353,27 +1353,27 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1388,27 +1388,27 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" t="s">
         <v>53</v>
       </c>
-      <c r="I19" t="s">
-        <v>56</v>
-      </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1423,27 +1423,27 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" t="s">
         <v>53</v>
       </c>
-      <c r="I20" t="s">
-        <v>56</v>
-      </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1458,27 +1458,27 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" t="s">
         <v>53</v>
       </c>
-      <c r="I21" t="s">
-        <v>56</v>
-      </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1493,27 +1493,27 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" t="s">
         <v>53</v>
       </c>
-      <c r="I22" t="s">
-        <v>56</v>
-      </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -1528,27 +1528,27 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" t="s">
         <v>53</v>
       </c>
-      <c r="I23" t="s">
-        <v>56</v>
-      </c>
       <c r="J23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -1563,27 +1563,27 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" t="s">
         <v>53</v>
       </c>
-      <c r="I24" t="s">
-        <v>56</v>
-      </c>
       <c r="J24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1598,27 +1598,27 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
@@ -1633,27 +1633,27 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" t="s">
         <v>53</v>
       </c>
-      <c r="I26" t="s">
-        <v>57</v>
-      </c>
-      <c r="J26" t="s">
-        <v>56</v>
-      </c>
       <c r="K26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1668,27 +1668,27 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" t="s">
         <v>53</v>
       </c>
-      <c r="I27" t="s">
-        <v>56</v>
-      </c>
       <c r="J27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -1703,27 +1703,27 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" t="s">
         <v>53</v>
       </c>
-      <c r="I28" t="s">
-        <v>56</v>
-      </c>
       <c r="J28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -1738,27 +1738,27 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" t="s">
         <v>55</v>
       </c>
-      <c r="I29" t="s">
-        <v>58</v>
-      </c>
       <c r="J29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
@@ -1773,27 +1773,27 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" t="s">
         <v>55</v>
       </c>
-      <c r="I30" t="s">
-        <v>58</v>
-      </c>
       <c r="J30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -1808,27 +1808,27 @@
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" t="s">
         <v>55</v>
       </c>
-      <c r="I31" t="s">
-        <v>58</v>
-      </c>
       <c r="J31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
@@ -1843,27 +1843,27 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
@@ -1878,27 +1878,27 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -1913,27 +1913,27 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -1948,27 +1948,27 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" t="s">
         <v>53</v>
       </c>
-      <c r="I35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J35" t="s">
-        <v>56</v>
-      </c>
       <c r="K35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
@@ -1983,27 +1983,27 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" t="s">
+        <v>54</v>
+      </c>
+      <c r="J36" t="s">
         <v>53</v>
       </c>
-      <c r="I36" t="s">
-        <v>57</v>
-      </c>
-      <c r="J36" t="s">
-        <v>56</v>
-      </c>
       <c r="K36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
@@ -2018,27 +2018,27 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I37" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J37" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -2053,27 +2053,27 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" t="s">
         <v>55</v>
       </c>
-      <c r="I38" t="s">
-        <v>58</v>
-      </c>
       <c r="J38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -2088,22 +2088,22 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" t="s">
         <v>55</v>
       </c>
-      <c r="I39" t="s">
-        <v>58</v>
-      </c>
       <c r="J39" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
